--- a/biology/Botanique/Lysimachia_terrestris/Lysimachia_terrestris.xlsx
+++ b/biology/Botanique/Lysimachia_terrestris/Lysimachia_terrestris.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lysimaque terrestre
 La Lysimaque terrestre, Lysimachia terrestris (L) B.S.P., est une espèce de plantes à fleurs de la famille des Primulaceae. Cette plante est présente en Amérique du Nord, notamment au Québec, dans les zones humides. Parfois, elle ne produit que des bulbilles allongées à l'aisselle des feuilles, ce qui trompa Linné qui crut avoir affaire à un gui terrestre qu'il nomma Viscum terrestris, ce qui explique le nom spécifique actuel de cette lysimaque.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			implantation.
@@ -546,12 +560,14 @@
           <t>Liste des variétés</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon The Plant List            (3 juin 2014)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon The Plant List            (3 juin 2014) :
 variété Lysimachia terrestris var. angustifolia (Chapm.) Hand.-Mazz.
 variété Lysimachia terrestris var. ovata (E.L. Rand &amp; Redfield) Fernald
-Selon Tropicos                                           (3 juin 2014)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (3 juin 2014) (Attention liste brute contenant possiblement des synonymes) :
 variété Lysimachia terrestris var. angustifolia (Chapm.) Hand.-Mazz.
 variété Lysimachia terrestris var. ovata (E.L. Rand &amp; Redfield) Fernald
 variété Lysimachia terrestris var. terrestris</t>
